--- a/nasdaq100_vs_california_property_30_year_return.xlsx
+++ b/nasdaq100_vs_california_property_30_year_return.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>30 year return</t>
   </si>
@@ -35,22 +35,10 @@
     <t>Nasdaq 100</t>
   </si>
   <si>
-    <t>Pacific Property</t>
+    <t>California Property</t>
   </si>
   <si>
-    <t>Pacific Property x 5 leverage</t>
-  </si>
-  <si>
-    <t>New England Property</t>
-  </si>
-  <si>
-    <t>New England Property x 5 leverage</t>
-  </si>
-  <si>
-    <t>Middle Atlantic Property</t>
-  </si>
-  <si>
-    <t>Middle Atlantic Property x 5 leverage</t>
+    <t>California Property x 5 leverage (20% downpay)</t>
   </si>
 </sst>
 </file>
@@ -672,18 +660,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1218,77 +1212,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="14.2857142857143" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.8571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.2857142857143" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>42.28075</v>
+      <c r="B2" s="5">
+        <v>38.023419</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>3.488719</v>
+      <c r="B3" s="3">
+        <v>2.851894</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" ht="30" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>21.443594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2.829723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>18.148616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.309095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>15.545473</v>
+      <c r="B4" s="3">
+        <v>18.25947</v>
       </c>
     </row>
   </sheetData>

--- a/nasdaq100_vs_california_property_30_year_return.xlsx
+++ b/nasdaq100_vs_california_property_30_year_return.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9480"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>30 year return</t>
+    <t>30 year return median</t>
+  </si>
+  <si>
+    <t>30 year return average</t>
   </si>
   <si>
     <t>Nasdaq 100</t>
@@ -660,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,11 +676,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1212,45 +1221,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="27.8571428571429" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.2857142857143" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
         <v>38.023419</v>
       </c>
+      <c r="C2" s="7">
+        <v>39.350083</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>2.851894</v>
       </c>
+      <c r="C3" s="4">
+        <v>2.716241</v>
+      </c>
     </row>
-    <row r="4" ht="30" spans="1:2">
+    <row r="4" ht="28.8" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>18.25947</v>
+      </c>
+      <c r="C4" s="4">
+        <v>17.581207</v>
       </c>
     </row>
   </sheetData>

--- a/nasdaq100_vs_california_property_30_year_return.xlsx
+++ b/nasdaq100_vs_california_property_30_year_return.xlsx
@@ -29,10 +29,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>30 year return median</t>
+    <t>median 30-year return</t>
   </si>
   <si>
-    <t>30 year return average</t>
+    <t>average 30-year return</t>
   </si>
   <si>
     <t>Nasdaq 100</t>
@@ -663,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,17 +676,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1224,32 +1221,32 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.6666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.2222222222222" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>38.023419</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>39.350083</v>
       </c>
     </row>
@@ -1260,7 +1257,7 @@
       <c r="B3" s="3">
         <v>2.851894</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2.716241</v>
       </c>
     </row>
@@ -1271,7 +1268,7 @@
       <c r="B4" s="3">
         <v>18.25947</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>17.581207</v>
       </c>
     </row>
